--- a/数据整理/stocks/A股/上证主板/600329-中新药业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600329-中新药业.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>81.41</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>7.43</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>81.41</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>7.43</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -594,26 +634,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>512040</t>
+          <t>005505</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国中证价值ETF</t>
+          <t>前海开源中药研究精选股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>98.57</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -622,25 +672,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005505</t>
+          <t>005506</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源中药研究精选股票A</t>
+          <t>前海开源中药研究精选股票C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>85.03</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>9.33</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -650,26 +710,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005506</t>
+          <t>512040</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源中药研究精选股票C</t>
+          <t>富国中证价值ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>85.03</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>9.33</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600329-中新药业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600329-中新药业.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -745,4 +746,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000547</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信健康民生混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002585</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信兴利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>66.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515590</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源中证500等权重ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600329-中新药业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600329-中新药业.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -916,4 +917,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009715</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富策略增长两年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5000</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005270</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>太平改革红利精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1213</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010896</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>太平价值增长股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0956</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010897</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>太平价值增长股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600329-中新药业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600329-中新药业.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1125,4 +1126,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600329-中新药业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600329-中新药业.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1134,7 +1135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1145,17 +1146,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1165,14 +1186,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.8</v>
+          <t>470009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9539</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1181,14 +1224,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.08</v>
+          <t>009715</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富策略增长两年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6612</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1197,14 +1262,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.11</v>
+          <t>007012</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>湘财长顺混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5384</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1213,13 +1300,757 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>013414</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>太平智远三个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5090</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008128</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>湘财长源股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4952</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002252</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2755</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161611</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2659</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007013</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>湘财长顺混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1225</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010896</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>太平价值增长股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1161</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009907</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>71.65</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1073</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005270</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>太平改革红利精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1045</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.48</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0735</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008129</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>湘财长源股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0685</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010897</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>太平价值增长股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002085</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长盛互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.40</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006199</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长盛同锦研究精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001892</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长盛新兴成长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>81.20</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009908</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>71.65</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>515510</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实中证500成长估值ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>98.54</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>960014</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合型证券投资基金 O</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600329-中新药业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600329-中新药业.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1949,7 +1950,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1960,17 +1961,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1980,14 +2001,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.53</v>
+          <t>470009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1210</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1996,14 +2039,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.8</v>
+          <t>009715</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富策略增长两年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6425</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2012,14 +2077,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.08</v>
+          <t>013414</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>太平智远三个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4536</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -2028,14 +2115,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.11</v>
+          <t>009011</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏睿阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3446</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2044,13 +2153,735 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>161611</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>65.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2812</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005409</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1584</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011748</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1411</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005270</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>太平改革红利精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010896</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>太平价值增长股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010897</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>太平价值增长股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002252</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>78.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006199</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长盛同锦研究精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001892</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长盛新兴成长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010032</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005117</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002085</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长盛互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011749</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气成长混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005118</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006992</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉合锦创优势精选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>74.79</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>960014</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合型证券投资基金 O</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.53</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>
